--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.46626804870457</v>
+        <v>5.652167666666667</v>
       </c>
       <c r="H2">
-        <v>5.46626804870457</v>
+        <v>16.956503</v>
       </c>
       <c r="I2">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="J2">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N2">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q2">
-        <v>58.8808276723078</v>
+        <v>119.1579455614248</v>
       </c>
       <c r="R2">
-        <v>58.8808276723078</v>
+        <v>1072.421510052823</v>
       </c>
       <c r="S2">
-        <v>0.005528855695402926</v>
+        <v>0.01063375283228868</v>
       </c>
       <c r="T2">
-        <v>0.005528855695402926</v>
+        <v>0.01063375283228868</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.46626804870457</v>
+        <v>5.652167666666667</v>
       </c>
       <c r="H3">
-        <v>5.46626804870457</v>
+        <v>16.956503</v>
       </c>
       <c r="I3">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="J3">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N3">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q3">
-        <v>1628.076537123021</v>
+        <v>1704.694608555593</v>
       </c>
       <c r="R3">
-        <v>1628.076537123021</v>
+        <v>15342.25147700034</v>
       </c>
       <c r="S3">
-        <v>0.1528748930792957</v>
+        <v>0.1521283455879224</v>
       </c>
       <c r="T3">
-        <v>0.1528748930792957</v>
+        <v>0.1521283455879224</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.46626804870457</v>
+        <v>5.652167666666667</v>
       </c>
       <c r="H4">
-        <v>5.46626804870457</v>
+        <v>16.956503</v>
       </c>
       <c r="I4">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="J4">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N4">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q4">
-        <v>247.7402388510282</v>
+        <v>260.7641664595275</v>
       </c>
       <c r="R4">
-        <v>247.7402388510282</v>
+        <v>2346.877498135747</v>
       </c>
       <c r="S4">
-        <v>0.02326258112700037</v>
+        <v>0.02327080817467596</v>
       </c>
       <c r="T4">
-        <v>0.02326258112700037</v>
+        <v>0.02327080817467596</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.3597668135241</v>
+        <v>16.407289</v>
       </c>
       <c r="H5">
-        <v>16.3597668135241</v>
+        <v>49.221867</v>
       </c>
       <c r="I5">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="J5">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N5">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q5">
-        <v>176.221985808862</v>
+        <v>345.8954094731497</v>
       </c>
       <c r="R5">
-        <v>176.221985808862</v>
+        <v>3113.058685258347</v>
       </c>
       <c r="S5">
-        <v>0.01654708278417706</v>
+        <v>0.03086799015232012</v>
       </c>
       <c r="T5">
-        <v>0.01654708278417706</v>
+        <v>0.03086799015232012</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.3597668135241</v>
+        <v>16.407289</v>
       </c>
       <c r="H6">
-        <v>16.3597668135241</v>
+        <v>49.221867</v>
       </c>
       <c r="I6">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="J6">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N6">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q6">
-        <v>4872.602708938608</v>
+        <v>4948.440801616965</v>
       </c>
       <c r="R6">
-        <v>4872.602708938608</v>
+        <v>44535.96721455269</v>
       </c>
       <c r="S6">
-        <v>0.457532923767324</v>
+        <v>0.4416029173856635</v>
       </c>
       <c r="T6">
-        <v>0.457532923767324</v>
+        <v>0.4416029173856635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.3597668135241</v>
+        <v>16.407289</v>
       </c>
       <c r="H7">
-        <v>16.3597668135241</v>
+        <v>49.221867</v>
       </c>
       <c r="I7">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="J7">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N7">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q7">
-        <v>741.4514805745911</v>
+        <v>756.9543743681539</v>
       </c>
       <c r="R7">
-        <v>741.4514805745911</v>
+        <v>6812.589369313384</v>
       </c>
       <c r="S7">
-        <v>0.0696216137458906</v>
+        <v>0.06755122945789074</v>
       </c>
       <c r="T7">
-        <v>0.0696216137458906</v>
+        <v>0.06755122945789074</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.263569808391409</v>
+        <v>8.323166333333333</v>
       </c>
       <c r="H8">
-        <v>8.263569808391409</v>
+        <v>24.969499</v>
       </c>
       <c r="I8">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="J8">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N8">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q8">
-        <v>89.01243508563206</v>
+        <v>175.4674417560065</v>
       </c>
       <c r="R8">
-        <v>89.01243508563206</v>
+        <v>1579.206975804059</v>
       </c>
       <c r="S8">
-        <v>0.008358185985832135</v>
+        <v>0.01565885847524571</v>
       </c>
       <c r="T8">
-        <v>0.008358185985832135</v>
+        <v>0.01565885847524571</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.263569808391409</v>
+        <v>8.323166333333333</v>
       </c>
       <c r="H9">
-        <v>8.263569808391409</v>
+        <v>24.969499</v>
       </c>
       <c r="I9">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="J9">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N9">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q9">
-        <v>2461.226562262819</v>
+        <v>2510.268203510728</v>
       </c>
       <c r="R9">
-        <v>2461.226562262819</v>
+        <v>22592.41383159655</v>
       </c>
       <c r="S9">
-        <v>0.231106916026651</v>
+        <v>0.2240183941835933</v>
       </c>
       <c r="T9">
-        <v>0.231106916026651</v>
+        <v>0.2240183941835933</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.263569808391409</v>
+        <v>8.323166333333333</v>
       </c>
       <c r="H10">
-        <v>8.263569808391409</v>
+        <v>24.969499</v>
       </c>
       <c r="I10">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="J10">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N10">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q10">
-        <v>374.5185453498196</v>
+        <v>383.9913568055279</v>
       </c>
       <c r="R10">
-        <v>374.5185453498196</v>
+        <v>3455.922211249751</v>
       </c>
       <c r="S10">
-        <v>0.03516694778842621</v>
+        <v>0.03426770375039966</v>
       </c>
       <c r="T10">
-        <v>0.03516694778842621</v>
+        <v>0.03426770375039966</v>
       </c>
     </row>
   </sheetData>
